--- a/biology/Mycologie/Pseudocraterellus/Pseudocraterellus.xlsx
+++ b/biology/Mycologie/Pseudocraterellus/Pseudocraterellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudocraterellus est un genre de champignons de la famille des Cantharellaceae, proche du genre Craterellus par la forme cornucopiée, qui comporte une dizaine d'espèces[1][réf. incomplète]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudocraterellus est un genre de champignons de la famille des Cantharellaceae, proche du genre Craterellus par la forme cornucopiée, qui comporte une dizaine d'espèces[réf. incomplète]. 
 </t>
         </is>
       </c>
@@ -513,26 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hémisphère nord
-Pseudocraterellus undulatus (Pers. : Fr.) S. Rauschert - Chanterelle sinueuse (pied gris)
-Pseudocraterellus subundulatus (Peck) D.A. Reid 1962{{référence incomplète|[2] (pied brun, lames grises)
-Craterellus subundulatus (Peck) Peck 1903[3][réf. incomplète] (synonyme)
-Thelephora subundulata Peck 1895[4][réf. incomplète] (synonyme)
-Pseudocraterellus pertenuis (Skovst.) D.A. Reid 1962[5][réf. incomplète] Espagne (pied jaune)
-Chine
-Pseudocraterellus sinensis (Lloyd) D.A. Reid 1962[6][réf. incomplète]
-Stereum sinense Lloyd 1922[7][réf. incomplète] (synonyme)
-Venezuela
-Pseudocraterellus neotropicalis Corner 1976[8][réf. incomplète]
-Autres
-Pseudocraterellus alutaceus (Bres.) D.A. Reid 1962[9][réf. incomplète]
-Podoscypha alutacea Bres. 1916[10][réf. incomplète] (synonyme)
-Pseudocraterellus calyculus (Berk. &amp; M.A. Curtis) D.A. Reid 1962[11][réf. incomplète]
-Craterellus calyculus (Berk. &amp; M.A. Curtis) Burt 1914[12][réf. incomplète] (synonyme)
-Stereum calyculus Berk. &amp; M.A. Curtis 1849 (synonyme)
-Pseudocraterellus luteus (Pat.) D.A. Reid 1962[13][réf. incomplète]
-Podoscypha lutea Pat. 1927[14][réf. incomplète] (synonyme)
-Pseudocraterellus mussooriensis D.A. Reid, K.S. Thind &amp; Adlakha{{référence incomplète|[15]</t>
+          <t>Hémisphère nord</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus undulatus (Pers. : Fr.) S. Rauschert - Chanterelle sinueuse (pied gris)
+Pseudocraterellus subundulatus (Peck) D.A. Reid 1962{{référence incomplète| (pied brun, lames grises)
+Craterellus subundulatus (Peck) Peck 1903[réf. incomplète] (synonyme)
+Thelephora subundulata Peck 1895[réf. incomplète] (synonyme)
+Pseudocraterellus pertenuis (Skovst.) D.A. Reid 1962[réf. incomplète] Espagne (pied jaune)</t>
         </is>
       </c>
     </row>
@@ -557,12 +560,142 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution et synonymes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hémisphère nord</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus sinensis (Lloyd) D.A. Reid 1962[réf. incomplète]
+Stereum sinense Lloyd 1922[réf. incomplète] (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution et synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hémisphère nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus neotropicalis Corner 1976[réf. incomplète]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution et synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hémisphère nord</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus alutaceus (Bres.) D.A. Reid 1962[réf. incomplète]
+Podoscypha alutacea Bres. 1916[réf. incomplète] (synonyme)
+Pseudocraterellus calyculus (Berk. &amp; M.A. Curtis) D.A. Reid 1962[réf. incomplète]
+Craterellus calyculus (Berk. &amp; M.A. Curtis) Burt 1914[réf. incomplète] (synonyme)
+Stereum calyculus Berk. &amp; M.A. Curtis 1849 (synonyme)
+Pseudocraterellus luteus (Pat.) D.A. Reid 1962[réf. incomplète]
+Podoscypha lutea Pat. 1927[réf. incomplète] (synonyme)
+Pseudocraterellus mussooriensis D.A. Reid, K.S. Thind &amp; Adlakha{{référence incomplète|</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudocraterellus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2013)[16] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2013) :
 Pseudocraterellus alutaceus
 Pseudocraterellus calyculus
 Pseudocraterellus fuligineus
@@ -577,7 +710,7 @@
 Pseudocraterellus sinensis
 Pseudocraterellus subundulatus
 Pseudocraterellus undulatus
-Selon Index Fungorum                                      (29 octobre 2013)[17] :
+Selon Index Fungorum                                      (29 octobre 2013) :
 Pseudocraterellus alutaceus (Bres.) D.A. Reid 1962
 Pseudocraterellus calyculus (Berk. &amp; M.A. Curtis) D.A. Reid 1962
 Pseudocraterellus crispus Courtec. 1986
@@ -593,7 +726,7 @@
 Pseudocraterellus sinensis (Lloyd) D.A. Reid 1962
 Pseudocraterellus subundulatus (Peck) D.A. Reid 1962
 Pseudocraterellus undulatus (Pers.) Rauschert 1987
-Selon NCBI  (29 octobre 2013)[18] :
+Selon NCBI  (29 octobre 2013) :
 Pseudocraterellus sinuosus</t>
         </is>
       </c>
